--- a/markdown/PackagesRProjekt.xlsx
+++ b/markdown/PackagesRProjekt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matuscda/Documents/GitHub/2022-topic-02-team-05/markdown/markdown_demo/markdown_demo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Documents\GitHub\2022-topic-02-team-05\markdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC4069E-A46A-9748-B968-79FC5C68B48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9396BC-9896-4A04-A1E1-5098B75E9B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="680" windowWidth="28800" windowHeight="16020" xr2:uid="{CF1DC80D-AB90-D14E-9A8B-D78C95A1BD6C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF1DC80D-AB90-D14E-9A8B-D78C95A1BD6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -43,12 +41,6 @@
     <t>biomart</t>
   </si>
   <si>
-    <t>Lokalisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verwendung </t>
-  </si>
-  <si>
     <t>renaming the genenames from the hallmarkpathways-dataframe into ensembleIDs</t>
   </si>
   <si>
@@ -272,6 +264,12 @@
   </si>
   <si>
     <t>https://bioconductor.org/packages/release/data/annotation/html/org.Hs.eg.db.html</t>
+  </si>
+  <si>
+    <t>Usage</t>
+  </si>
+  <si>
+    <t>Localisation</t>
   </si>
 </sst>
 </file>
@@ -330,8 +328,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -347,7 +345,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -645,318 +643,318 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91197DA1-1283-2445-8AAE-77FFCAB9EC92}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" customWidth="1"/>
-    <col min="3" max="3" width="102.6640625" customWidth="1"/>
-    <col min="4" max="4" width="89.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="52.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D12" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B22" t="s">
         <v>73</v>
       </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/markdown/PackagesRProjekt.xlsx
+++ b/markdown/PackagesRProjekt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Documents\GitHub\2022-topic-02-team-05\markdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9396BC-9896-4A04-A1E1-5098B75E9B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF96238F-ADDB-40C1-965E-094867D1AA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF1DC80D-AB90-D14E-9A8B-D78C95A1BD6C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t xml:space="preserve">Package </t>
   </si>
@@ -50,9 +50,6 @@
     <t>https://bioconductor.org/packages/release/bioc/html/biomaRt.html</t>
   </si>
   <si>
-    <t>pre_03</t>
-  </si>
-  <si>
     <t>downloading all of the canonical pathways and the genes which they include in homo sapiens from the msigbdr data base</t>
   </si>
   <si>
@@ -74,12 +71,6 @@
     <t>tidying and manipulating of dataframes</t>
   </si>
   <si>
-    <t>pre_02, pre_03, pre_05</t>
-  </si>
-  <si>
-    <t>pre_04, pre_05</t>
-  </si>
-  <si>
     <t>pheatmap</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
     <t>vioplot</t>
   </si>
   <si>
-    <t>descr_02</t>
-  </si>
-  <si>
     <t>creation of violinplots</t>
   </si>
   <si>
@@ -107,9 +95,6 @@
     <t>VennDiagram</t>
   </si>
   <si>
-    <t>descr_05</t>
-  </si>
-  <si>
     <t>creation of VENN-diagrams</t>
   </si>
   <si>
@@ -143,57 +128,24 @@
     <t>to do a GSEA</t>
   </si>
   <si>
-    <t>THCA_01, pan_01</t>
-  </si>
-  <si>
     <t>gage</t>
   </si>
   <si>
-    <t>pan_01</t>
-  </si>
-  <si>
     <t>psych</t>
   </si>
   <si>
-    <t>pan_02</t>
-  </si>
-  <si>
     <t>iterative factor analysis</t>
   </si>
   <si>
-    <t>THCA_01, pan_03</t>
-  </si>
-  <si>
     <t>cluster</t>
   </si>
   <si>
-    <t>THCA_01, pan_03, pan_04</t>
-  </si>
-  <si>
-    <t>pan_04</t>
-  </si>
-  <si>
-    <t>THCA_02, pan_02, pan_04</t>
-  </si>
-  <si>
-    <t>pre_04, pre_05, descr_03, descr_04, THCA_01, THCA_02, pan_02, pan_04</t>
-  </si>
-  <si>
     <t>MASS</t>
   </si>
   <si>
-    <t>neu_00</t>
-  </si>
-  <si>
     <t>neuralnet</t>
   </si>
   <si>
-    <t>neu_03</t>
-  </si>
-  <si>
-    <t>descr_01, pan_01, neu_02, neu_04</t>
-  </si>
-  <si>
     <t>training of neural networks</t>
   </si>
   <si>
@@ -254,9 +206,6 @@
     <t>org.Hs.eg.db</t>
   </si>
   <si>
-    <t>descr_03</t>
-  </si>
-  <si>
     <t xml:space="preserve">translating ensemble ids into gennames </t>
   </si>
   <si>
@@ -269,7 +218,7 @@
     <t>Usage</t>
   </si>
   <si>
-    <t>Localisation</t>
+    <t>Authors</t>
   </si>
 </sst>
 </file>
@@ -644,7 +593,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -660,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -674,9 +623,6 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -685,276 +631,216 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -981,5 +867,6 @@
     <hyperlink ref="D22" r:id="rId20" xr:uid="{86F13372-44CA-0D4D-8A66-0CE5CAFC882B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/markdown/PackagesRProjekt.xlsx
+++ b/markdown/PackagesRProjekt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Documents\GitHub\2022-topic-02-team-05\markdown\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maren\Documents\GitHub\2022-topic-02-team-05\markdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF96238F-ADDB-40C1-965E-094867D1AA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255FB25D-BC71-4119-9D97-F0F6A6D70879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF1DC80D-AB90-D14E-9A8B-D78C95A1BD6C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF1DC80D-AB90-D14E-9A8B-D78C95A1BD6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t xml:space="preserve">Package </t>
   </si>
@@ -41,66 +41,30 @@
     <t>biomart</t>
   </si>
   <si>
-    <t>renaming the genenames from the hallmarkpathways-dataframe into ensembleIDs</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>https://bioconductor.org/packages/release/bioc/html/biomaRt.html</t>
-  </si>
-  <si>
-    <t>downloading all of the canonical pathways and the genes which they include in homo sapiens from the msigbdr data base</t>
-  </si>
-  <si>
     <t>msigdbr</t>
   </si>
   <si>
-    <t>https://bioconductor.org/packages/release/data/experiment/html/msigdb.html</t>
-  </si>
-  <si>
     <t>dplyr</t>
   </si>
   <si>
     <t>ggplot2</t>
   </si>
   <si>
-    <t>allows for the creation of plots with more detailed options</t>
-  </si>
-  <si>
-    <t>tidying and manipulating of dataframes</t>
-  </si>
-  <si>
     <t>pheatmap</t>
   </si>
   <si>
-    <t>allows for the creation of heatmaps with more detailed options</t>
-  </si>
-  <si>
     <t>vioplot</t>
   </si>
   <si>
     <t>creation of violinplots</t>
   </si>
   <si>
-    <t>https://cran.r-project.org/web/packages/vioplot/index.html</t>
-  </si>
-  <si>
-    <t>https://cran.r-project.org/web/packages/ggplot2/index.html</t>
-  </si>
-  <si>
-    <t>https://cran.r-project.org/web/packages/dplyr/index.html</t>
-  </si>
-  <si>
     <t>VennDiagram</t>
   </si>
   <si>
     <t>creation of VENN-diagrams</t>
   </si>
   <si>
-    <t>https://cran.r-project.org/web/packages/VennDiagram/VennDiagram.pdf</t>
-  </si>
-  <si>
     <t>fgsea</t>
   </si>
   <si>
@@ -119,24 +83,12 @@
     <t>umap</t>
   </si>
   <si>
-    <t>to do a UMAP</t>
-  </si>
-  <si>
-    <t>to do a GSVA</t>
-  </si>
-  <si>
-    <t>to do a GSEA</t>
-  </si>
-  <si>
     <t>gage</t>
   </si>
   <si>
     <t>psych</t>
   </si>
   <si>
-    <t>iterative factor analysis</t>
-  </si>
-  <si>
     <t>cluster</t>
   </si>
   <si>
@@ -149,57 +101,9 @@
     <t>training of neural networks</t>
   </si>
   <si>
-    <t>https://cran.r-project.org/web/packages/neuralnet/neuralnet.pdf</t>
-  </si>
-  <si>
-    <t>implementation of neural network</t>
-  </si>
-  <si>
-    <t>https://cran.r-project.org/web/packages/MASS/index.html</t>
-  </si>
-  <si>
-    <t>cluster analysis</t>
-  </si>
-  <si>
-    <t>https://cran.r-project.org/web/packages/cluster/cluster.pdf</t>
-  </si>
-  <si>
-    <t>https://bioconductor.org/packages/release/bioc/html/gage.html</t>
-  </si>
-  <si>
     <t>application of GSEA</t>
   </si>
   <si>
-    <t>https://cran.r-project.org/web/packages/psych/index.html</t>
-  </si>
-  <si>
-    <t>https://cran.r-project.org/web/packages/umap/index.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">implementation of "grid" graphics </t>
-  </si>
-  <si>
-    <t>https://cran.r-project.org/web/packages/gridExtra/index.html</t>
-  </si>
-  <si>
-    <t>data-driven plots</t>
-  </si>
-  <si>
-    <t>https://cran.r-project.org/web/packages/metaplot/index.html</t>
-  </si>
-  <si>
-    <t>https://bioconductor.org/packages/release/bioc/html/ComplexHeatmap.html</t>
-  </si>
-  <si>
-    <t>https://bioconductor.org/packages/release/bioc/html/GSVA.html</t>
-  </si>
-  <si>
-    <t>https://bioconductor.org/packages/release/bioc/html/fgsea.html</t>
-  </si>
-  <si>
-    <t>https://cran.r-project.org/web/packages/pheatmap/pheatmap.pdf</t>
-  </si>
-  <si>
     <t>AnnotationDbi</t>
   </si>
   <si>
@@ -209,16 +113,356 @@
     <t xml:space="preserve">translating ensemble ids into gennames </t>
   </si>
   <si>
-    <t>https://bioconductor.org/packages/release/bioc/html/AnnotationDbi.html</t>
-  </si>
-  <si>
-    <t>https://bioconductor.org/packages/release/data/annotation/html/org.Hs.eg.db.html</t>
-  </si>
-  <si>
     <t>Usage</t>
   </si>
   <si>
     <t>Authors</t>
+  </si>
+  <si>
+    <t>Chen, 2022</t>
+  </si>
+  <si>
+    <t>Revelle, 2022</t>
+  </si>
+  <si>
+    <t>Carlson, 2019</t>
+  </si>
+  <si>
+    <t>Konopka, 2022</t>
+  </si>
+  <si>
+    <t>Auguie and Antonov, 2017</t>
+  </si>
+  <si>
+    <t>Bergsma, 2019</t>
+  </si>
+  <si>
+    <t>Kolde, 2019</t>
+  </si>
+  <si>
+    <t>renaming genenames to ensembleIDs</t>
+  </si>
+  <si>
+    <t>downloading canonical pathways and included genes from MSigDB</t>
+  </si>
+  <si>
+    <t>editing of dataframes</t>
+  </si>
+  <si>
+    <t>creation of plots with detailed options</t>
+  </si>
+  <si>
+    <t>creation of heatmaps with detailed options</t>
+  </si>
+  <si>
+    <t>performing a GSEA</t>
+  </si>
+  <si>
+    <t>performing a GSVA</t>
+  </si>
+  <si>
+    <t>creating of data-driven plots</t>
+  </si>
+  <si>
+    <t>creating UMAPs</t>
+  </si>
+  <si>
+    <t>performing an iterative factor analysis</t>
+  </si>
+  <si>
+    <t>performing a cluster analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">implementing of "grid" graphics </t>
+  </si>
+  <si>
+    <t>implementing of neural network</t>
+  </si>
+  <si>
+    <r>
+      <t>Durinck *</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">et al.,* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2009</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bhuva *</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al.,*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Wickham *</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al.,*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Korotkevich *</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al.,*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2019</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hänzelmann *</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al.,*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2013</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Gu *</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">et al.,* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2016</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Luo *</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al.,*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2009</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Maechler *</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al.,*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ripley *</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al.,*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fritsch *</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al.,*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2019</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pagès *</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al.,*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2022</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -242,9 +486,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -267,18 +511,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -294,7 +535,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -590,283 +831,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91197DA1-1283-2445-8AAE-77FFCAB9EC92}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="52.375" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="69.5" customWidth="1"/>
+    <col min="3" max="3" width="66.25" customWidth="1"/>
+    <col min="4" max="4" width="52.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" xr:uid="{DE94B51E-30D6-9642-A893-DDD4E5109132}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{76E40047-CB38-DD46-A574-C5D6EA002DEA}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{B771A5AD-F565-8C4B-86DB-11C7DDF14FF8}"/>
-    <hyperlink ref="D8" r:id="rId4" xr:uid="{859F49A7-44E4-F348-B77B-A25342D99253}"/>
-    <hyperlink ref="D20" r:id="rId5" xr:uid="{601D5DB3-6E39-EB4F-9AD7-DC94724F4527}"/>
-    <hyperlink ref="D19" r:id="rId6" xr:uid="{2B588D65-B033-7A4A-B09F-67BFD8291EB6}"/>
-    <hyperlink ref="D18" r:id="rId7" xr:uid="{4C4D8437-7B75-9B40-B4B1-2D3F24D7446F}"/>
-    <hyperlink ref="D16" r:id="rId8" xr:uid="{37E8D145-7931-3E46-9DB2-3FAB08B97D5B}"/>
-    <hyperlink ref="D17" r:id="rId9" xr:uid="{E9549428-DA96-5C4C-9ED0-595373F32369}"/>
-    <hyperlink ref="D15" r:id="rId10" xr:uid="{0C9CDF29-3C1C-9E43-8B3B-BE398B46D833}"/>
-    <hyperlink ref="D13" r:id="rId11" xr:uid="{F2E0BDF1-37AC-EA46-8EB8-F6095610737F}"/>
-    <hyperlink ref="D14" r:id="rId12" xr:uid="{C01D71A8-529C-A44C-A408-B20AD4396EFD}"/>
-    <hyperlink ref="D12" r:id="rId13" xr:uid="{C9DD076A-2ADB-F147-A206-73B0C298E4AE}"/>
-    <hyperlink ref="D11" r:id="rId14" xr:uid="{D5066C02-48AD-094E-9BFD-5196E579476B}"/>
-    <hyperlink ref="D10" r:id="rId15" xr:uid="{20B50541-20EA-3A43-A034-4610F8724CAC}"/>
-    <hyperlink ref="D6" r:id="rId16" xr:uid="{95CA9ADF-8CB8-1A48-A81D-5457412D2224}"/>
-    <hyperlink ref="D3" r:id="rId17" xr:uid="{371F4B09-FEA3-CE41-85BE-B1BACBF09B86}"/>
-    <hyperlink ref="D2" r:id="rId18" xr:uid="{A1E3A95F-F421-2841-B3FD-DFA65AF05045}"/>
-    <hyperlink ref="D21" r:id="rId19" xr:uid="{785638E3-25B3-C345-8B8A-F4805FCA5E5F}"/>
-    <hyperlink ref="D22" r:id="rId20" xr:uid="{86F13372-44CA-0D4D-8A66-0CE5CAFC882B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/markdown/PackagesRProjekt.xlsx
+++ b/markdown/PackagesRProjekt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maren\Documents\GitHub\2022-topic-02-team-05\markdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255FB25D-BC71-4119-9D97-F0F6A6D70879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6822CB7A-EBC0-4CA6-9F97-8E7413DECFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF1DC80D-AB90-D14E-9A8B-D78C95A1BD6C}"/>
+    <workbookView xWindow="3820" yWindow="1050" windowWidth="14400" windowHeight="7270" xr2:uid="{CF1DC80D-AB90-D14E-9A8B-D78C95A1BD6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>GSVA</t>
   </si>
   <si>
-    <t>ComplexHeatmap</t>
-  </si>
-  <si>
     <t>metaplot</t>
   </si>
   <si>
@@ -463,6 +460,9 @@
       </rPr>
       <t xml:space="preserve"> 2022</t>
     </r>
+  </si>
+  <si>
+    <t>Complex \ Heatmap</t>
   </si>
 </sst>
 </file>
@@ -833,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91197DA1-1283-2445-8AAE-77FFCAB9EC92}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -850,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -862,10 +862,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -874,10 +874,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -886,10 +886,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -898,10 +898,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -910,10 +910,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -925,7 +925,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -937,7 +937,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -946,10 +946,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -958,142 +958,142 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="1"/>
     </row>
